--- a/templates/прчм2.xlsx
+++ b/templates/прчм2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -75,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +85,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,6 +169,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,40 +946,64 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="18">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="17">
+        <f>2.2*A8-2^A8</f>
+        <v>-4.6500000000000004</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="17">
+        <f>2.2*A9-2^A9</f>
+        <v>-2.7</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="21">
+        <v>0</v>
+      </c>
+      <c r="B10" s="22">
+        <f t="shared" ref="B10:B14" si="1">2.2*A10-2^A10</f>
+        <v>-1</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="19">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="11"/>
       <c r="E11" s="13"/>
